--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
@@ -215,10 +215,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -226,62 +226,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -603,7 +547,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -646,7 +590,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -669,9 +613,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 10, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 10, 2025</t>
+          <t>November 11, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>TRN-005</t>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TRN-006</t>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>TRN-007</t>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>TRN-008</t>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>TRN-009</t>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>TRN-010</t>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>TRN-011</t>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>TRN-012</t>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>TRN-013</t>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>TRN-014</t>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>TRN-015</t>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>TRN-016</t>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>TRN-017</t>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>TRN-018</t>
@@ -2029,7 +2029,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>TRN-019</t>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>TRN-020</t>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/training-plan.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Training Plan'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Training Plan'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,10 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,26 +33,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="005D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Segoe UI Semibold"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -64,12 +94,36 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -90,13 +144,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -108,29 +190,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -215,10 +339,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -531,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,83 +663,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Training Plan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Data table for training plan</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -626,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -656,1518 +804,1518 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Training ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Module Name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Target Audience</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>Duration Hours</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Format</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Prerequisites</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t>Learning Objectives</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="19" t="inlineStr">
         <is>
           <t>Materials Required</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="19" t="inlineStr">
         <is>
           <t>Trainer</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Scheduled Date</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="19" t="inlineStr">
         <is>
           <t>Max Attendees</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="19" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="19" t="inlineStr">
         <is>
           <t>Completion Rate</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="19" t="inlineStr">
         <is>
           <t>Feedback Score</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="19" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>TRN-001</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>System Overview and Architecture</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Administrators</t>
         </is>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>Basic system administration knowledge</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>Describe solution architecture, Navigate admin interface, Explain data flow</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>Presentation slides, System access, Architecture diagrams</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
         <is>
           <t>System Architect</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>Conference Room A</t>
         </is>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N2" s="8" t="n"/>
-      <c r="O2" s="8" t="n"/>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="N2" s="21" t="n"/>
+      <c r="O2" s="21" t="n"/>
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>Foundation module for all admin training</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>TRN-002</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>User Management and Security</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>Administrators</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="22" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="22" t="inlineStr">
         <is>
           <t>TRN-001 completed</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="22" t="inlineStr">
         <is>
           <t>Configure user accounts, Set permissions, Manage security policies</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="22" t="inlineStr">
         <is>
           <t>Admin guide, Test accounts, Security checklist</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="22" t="inlineStr">
         <is>
           <t>Security Engineer</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="K3" s="22" t="inlineStr">
         <is>
           <t>Conference Room B</t>
         </is>
       </c>
-      <c r="L3" s="7" t="inlineStr">
+      <c r="L3" s="22" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M3" s="7" t="inlineStr">
+      <c r="M3" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N3" s="9" t="n"/>
-      <c r="O3" s="9" t="n"/>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="N3" s="23" t="n"/>
+      <c r="O3" s="23" t="n"/>
+      <c r="P3" s="22" t="inlineStr">
         <is>
           <t>Critical for system security</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>TRN-003</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>System Configuration</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>Administrators</t>
         </is>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Hands-On Lab</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>TRN-001 and TRN-002 completed</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t>Configure system settings, Customize workflows, Set up integrations</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>Configuration guide, Lab environment, Test data</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="K4" s="20" t="inlineStr">
         <is>
           <t>Training Lab</t>
         </is>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N4" s="8" t="n"/>
-      <c r="O4" s="8" t="n"/>
-      <c r="P4" s="6" t="inlineStr">
+      <c r="N4" s="21" t="n"/>
+      <c r="O4" s="21" t="n"/>
+      <c r="P4" s="20" t="inlineStr">
         <is>
           <t>Hands-on practice essential</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="22" t="inlineStr">
         <is>
           <t>TRN-004</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>Backup and Recovery</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>Administrators</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="22" t="inlineStr">
         <is>
           <t>VILT</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="22" t="inlineStr">
         <is>
           <t>System administration experience</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="22" t="inlineStr">
         <is>
           <t>Execute backup procedures, Perform recovery operations, Monitor system health</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="22" t="inlineStr">
         <is>
           <t>Backup procedures guide, Recovery checklist</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="22" t="inlineStr">
         <is>
           <t>Operations Manager</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="K5" s="22" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="L5" s="22" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M5" s="7" t="inlineStr">
+      <c r="M5" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N5" s="9" t="n"/>
-      <c r="O5" s="9" t="n"/>
-      <c r="P5" s="7" t="inlineStr">
+      <c r="N5" s="23" t="n"/>
+      <c r="O5" s="23" t="n"/>
+      <c r="P5" s="22" t="inlineStr">
         <is>
           <t>Critical operational procedures</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>TRN-005</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Performance Monitoring</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>Administrators</t>
         </is>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>E-Learning</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
         <is>
           <t>Basic monitoring concepts</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t>Set up monitoring, Interpret metrics, Configure alerts</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t>Online modules, Monitoring tools access</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="20" t="inlineStr">
         <is>
           <t>Performance Engineer</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="20" t="inlineStr">
         <is>
           <t>Self-Paced</t>
         </is>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="20" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N6" s="8" t="n"/>
-      <c r="O6" s="8" t="n"/>
-      <c r="P6" s="6" t="inlineStr">
+      <c r="N6" s="21" t="n"/>
+      <c r="O6" s="21" t="n"/>
+      <c r="P6" s="20" t="inlineStr">
         <is>
           <t>Self-paced with practical exercises</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>TRN-006</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="22" t="inlineStr">
         <is>
           <t>Core Functionality</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>End Users</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="22" t="n">
         <v>1.5</v>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="22" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>Basic computer skills</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>Navigate user interface, Perform daily tasks, Use core features</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>User guide, System access, Sample data</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="22" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="22" t="inlineStr">
         <is>
           <t>Conference Room C</t>
         </is>
       </c>
-      <c r="L7" s="7" t="inlineStr">
+      <c r="L7" s="22" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" s="7" t="inlineStr">
+      <c r="M7" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N7" s="9" t="n"/>
-      <c r="O7" s="9" t="n"/>
-      <c r="P7" s="7" t="inlineStr">
+      <c r="N7" s="23" t="n"/>
+      <c r="O7" s="23" t="n"/>
+      <c r="P7" s="22" t="inlineStr">
         <is>
           <t>Essential for all end users</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>TRN-007</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Data Entry and Processing</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>End Users</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>Hands-On Lab</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr">
         <is>
           <t>TRN-006 completed</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t>Enter data accurately, Process workflows, Generate reports</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>Data entry guide, Practice datasets, Report templates</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
         <is>
           <t>Subject Matter Expert</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="20" t="inlineStr">
         <is>
           <t>Training Lab</t>
         </is>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="20" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N8" s="8" t="n"/>
-      <c r="O8" s="8" t="n"/>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="N8" s="21" t="n"/>
+      <c r="O8" s="21" t="n"/>
+      <c r="P8" s="20" t="inlineStr">
         <is>
           <t>Practical skills development</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="22" t="inlineStr">
         <is>
           <t>TRN-008</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="22" t="inlineStr">
         <is>
           <t>Reporting and Analytics</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>Power Users</t>
         </is>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="22" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
         <is>
           <t>TRN-006 completed</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="22" t="inlineStr">
         <is>
           <t>Create custom reports, Analyze data, Export information</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="22" t="inlineStr">
         <is>
           <t>Reporting guide, Analytics tools, Sample queries</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="22" t="inlineStr">
         <is>
           <t>Data Analyst</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="22" t="inlineStr">
         <is>
           <t>Conference Room A</t>
         </is>
       </c>
-      <c r="L9" s="7" t="inlineStr">
+      <c r="L9" s="22" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M9" s="7" t="inlineStr">
+      <c r="M9" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="7" t="inlineStr">
+      <c r="N9" s="23" t="n"/>
+      <c r="O9" s="23" t="n"/>
+      <c r="P9" s="22" t="inlineStr">
         <is>
           <t>Advanced reporting capabilities</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>TRN-009</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Advanced Features</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>Power Users</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>VILT</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>TRN-006 and TRN-007 completed</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t>Use advanced functions, Customize interfaces, Automate tasks</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>Advanced user guide, Automation examples</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="20" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="20" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="P10" s="6" t="inlineStr">
+      <c r="N10" s="21" t="n"/>
+      <c r="O10" s="21" t="n"/>
+      <c r="P10" s="20" t="inlineStr">
         <is>
           <t>Power user capabilities</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>TRN-010</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="22" t="inlineStr">
         <is>
           <t>Troubleshooting</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>Power Users</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>E-Learning</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="22" t="inlineStr">
         <is>
           <t>Basic troubleshooting skills</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>Diagnose issues, Apply solutions, Escalate problems</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="22" t="inlineStr">
         <is>
           <t>Troubleshooting guide, Issue scenarios</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="22" t="inlineStr">
         <is>
           <t>Support Manager</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K11" s="7" t="inlineStr">
+      <c r="K11" s="22" t="inlineStr">
         <is>
           <t>Self-Paced</t>
         </is>
       </c>
-      <c r="L11" s="7" t="inlineStr">
+      <c r="L11" s="22" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="M11" s="7" t="inlineStr">
+      <c r="M11" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="7" t="inlineStr">
+      <c r="N11" s="23" t="n"/>
+      <c r="O11" s="23" t="n"/>
+      <c r="P11" s="22" t="inlineStr">
         <is>
           <t>Self-service support skills</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>TRN-011</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Management Dashboard</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>Basic computer skills</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="20" t="inlineStr">
         <is>
           <t>Access dashboards, Interpret KPIs, Generate executive reports</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="H12" s="20" t="inlineStr">
         <is>
           <t>Manager guide, Dashboard access, KPI definitions</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="20" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J12" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K12" s="6" t="inlineStr">
+      <c r="K12" s="20" t="inlineStr">
         <is>
           <t>Executive Conference Room</t>
         </is>
       </c>
-      <c r="L12" s="6" t="inlineStr">
+      <c r="L12" s="20" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="M12" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N12" s="8" t="n"/>
-      <c r="O12" s="8" t="n"/>
-      <c r="P12" s="6" t="inlineStr">
+      <c r="N12" s="21" t="n"/>
+      <c r="O12" s="21" t="n"/>
+      <c r="P12" s="20" t="inlineStr">
         <is>
           <t>Executive-level overview</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="22" t="inlineStr">
         <is>
           <t>TRN-012</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>System Integration</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="22" t="inlineStr">
         <is>
           <t>IT Support</t>
         </is>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Hands-On Lab</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="22" t="inlineStr">
         <is>
           <t>Integration experience</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="G13" s="22" t="inlineStr">
         <is>
           <t>Configure integrations, Troubleshoot connections, Monitor data flow</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="22" t="inlineStr">
         <is>
           <t>Integration guide, Test environments, API documentation</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="22" t="inlineStr">
         <is>
           <t>Integration Specialist</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+      <c r="K13" s="22" t="inlineStr">
         <is>
           <t>IT Lab</t>
         </is>
       </c>
-      <c r="L13" s="7" t="inlineStr">
+      <c r="L13" s="22" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M13" s="7" t="inlineStr">
+      <c r="M13" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="7" t="inlineStr">
+      <c r="N13" s="23" t="n"/>
+      <c r="O13" s="23" t="n"/>
+      <c r="P13" s="22" t="inlineStr">
         <is>
           <t>Technical integration skills</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="20" t="inlineStr">
         <is>
           <t>TRN-013</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Technical Troubleshooting</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>IT Support</t>
         </is>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>TRN-012 completed</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>Diagnose technical issues, Use diagnostic tools, Resolve problems</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>Technical guide, Diagnostic tools, Issue database</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>Technical Support Lead</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
+      <c r="K14" s="20" t="inlineStr">
         <is>
           <t>IT Training Room</t>
         </is>
       </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="L14" s="20" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N14" s="8" t="n"/>
-      <c r="O14" s="8" t="n"/>
-      <c r="P14" s="6" t="inlineStr">
+      <c r="N14" s="21" t="n"/>
+      <c r="O14" s="21" t="n"/>
+      <c r="P14" s="20" t="inlineStr">
         <is>
           <t>Advanced technical support</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>TRN-014</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="22" t="inlineStr">
         <is>
           <t>User Support Procedures</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="22" t="inlineStr">
         <is>
           <t>IT Support</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="22" t="inlineStr">
         <is>
           <t>VILT</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="22" t="inlineStr">
         <is>
           <t>Customer service experience</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="22" t="inlineStr">
         <is>
           <t>Handle user requests, Use ticketing system, Escalate issues</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="22" t="inlineStr">
         <is>
           <t>Support procedures, Ticketing system access</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="22" t="inlineStr">
         <is>
           <t>Support Manager</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K15" s="7" t="inlineStr">
+      <c r="K15" s="22" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L15" s="7" t="inlineStr">
+      <c r="L15" s="22" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M15" s="7" t="inlineStr">
+      <c r="M15" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="7" t="inlineStr">
+      <c r="N15" s="23" t="n"/>
+      <c r="O15" s="23" t="n"/>
+      <c r="P15" s="22" t="inlineStr">
         <is>
           <t>Support desk procedures</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>TRN-015</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>Quick Reference Materials</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>All Users</t>
         </is>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="20" t="n">
         <v>0.5</v>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>Job Aid</t>
         </is>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="20" t="n">
         <v/>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>Access quick help, Use reference cards, Find support resources</t>
         </is>
       </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Quick reference cards, Help system</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
         <is>
           <t>Self-Service</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K16" s="6" t="inlineStr">
+      <c r="K16" s="20" t="inlineStr">
         <is>
           <t>Workplace</t>
         </is>
       </c>
-      <c r="L16" s="6" t="inlineStr">
+      <c r="L16" s="20" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="M16" s="6" t="inlineStr">
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N16" s="8" t="n"/>
-      <c r="O16" s="8" t="n"/>
-      <c r="P16" s="6" t="inlineStr">
+      <c r="N16" s="21" t="n"/>
+      <c r="O16" s="21" t="n"/>
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>Always available resources</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>TRN-016</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="22" t="inlineStr">
         <is>
           <t>New User Orientation</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>New Hires</t>
         </is>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="22" t="inlineStr">
         <is>
           <t>E-Learning</t>
         </is>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="22" t="n">
         <v/>
       </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="G17" s="22" t="inlineStr">
         <is>
           <t>Understand solution purpose, Know basic navigation, Identify support resources</t>
         </is>
       </c>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="H17" s="22" t="inlineStr">
         <is>
           <t>Orientation materials, Welcome packet</t>
         </is>
       </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="I17" s="22" t="inlineStr">
         <is>
           <t>Self-Service</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="J17" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K17" s="7" t="inlineStr">
+      <c r="K17" s="22" t="inlineStr">
         <is>
           <t>Self-Paced</t>
         </is>
       </c>
-      <c r="L17" s="7" t="inlineStr">
+      <c r="L17" s="22" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="M17" s="7" t="inlineStr">
+      <c r="M17" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="7" t="inlineStr">
+      <c r="N17" s="23" t="n"/>
+      <c r="O17" s="23" t="n"/>
+      <c r="P17" s="22" t="inlineStr">
         <is>
           <t>Onboarding for new employees</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>TRN-017</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>Change Management</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="20" t="inlineStr">
         <is>
           <t>Change Champions</t>
         </is>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="20" t="inlineStr">
         <is>
           <t>Leadership experience</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G18" s="20" t="inlineStr">
         <is>
           <t>Communicate changes, Support adoption, Gather feedback</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="H18" s="20" t="inlineStr">
         <is>
           <t>Change management toolkit, Communication templates</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="20" t="inlineStr">
         <is>
           <t>Change Manager</t>
         </is>
       </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="J18" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K18" s="6" t="inlineStr">
+      <c r="K18" s="20" t="inlineStr">
         <is>
           <t>Conference Room B</t>
         </is>
       </c>
-      <c r="L18" s="6" t="inlineStr">
+      <c r="L18" s="20" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M18" s="6" t="inlineStr">
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N18" s="8" t="n"/>
-      <c r="O18" s="8" t="n"/>
-      <c r="P18" s="6" t="inlineStr">
+      <c r="N18" s="21" t="n"/>
+      <c r="O18" s="21" t="n"/>
+      <c r="P18" s="20" t="inlineStr">
         <is>
           <t>Critical for successful adoption</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="22" t="inlineStr">
         <is>
           <t>TRN-018</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="22" t="inlineStr">
         <is>
           <t>Train-the-Trainer</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="22" t="inlineStr">
         <is>
           <t>Internal Trainers</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="22" t="inlineStr">
         <is>
           <t>ILT</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="22" t="inlineStr">
         <is>
           <t>Training experience</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="22" t="inlineStr">
         <is>
           <t>Deliver training sessions, Use training materials, Assess learning</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="22" t="inlineStr">
         <is>
           <t>Training materials, Presentation skills guide</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="22" t="inlineStr">
         <is>
           <t>Training Manager</t>
         </is>
       </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K19" s="7" t="inlineStr">
+      <c r="K19" s="22" t="inlineStr">
         <is>
           <t>Training Center</t>
         </is>
       </c>
-      <c r="L19" s="7" t="inlineStr">
+      <c r="L19" s="22" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M19" s="7" t="inlineStr">
+      <c r="M19" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="7" t="inlineStr">
+      <c r="N19" s="23" t="n"/>
+      <c r="O19" s="23" t="n"/>
+      <c r="P19" s="22" t="inlineStr">
         <is>
           <t>Build internal training capacity</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>TRN-019</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>System Refresh Training</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>Existing Users</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>VILT</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="20" t="inlineStr">
         <is>
           <t>Previous system experience</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="G20" s="20" t="inlineStr">
         <is>
           <t>Learn new features, Understand changes, Update workflows</t>
         </is>
       </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="H20" s="20" t="inlineStr">
         <is>
           <t>Update guide, Feature demos</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="20" t="inlineStr">
         <is>
           <t>Product Owner</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J20" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K20" s="6" t="inlineStr">
+      <c r="K20" s="20" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L20" s="6" t="inlineStr">
+      <c r="L20" s="20" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="M20" s="6" t="inlineStr">
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="6" t="inlineStr">
+      <c r="N20" s="21" t="n"/>
+      <c r="O20" s="21" t="n"/>
+      <c r="P20" s="20" t="inlineStr">
         <is>
           <t>For system updates and enhancements</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="22" t="inlineStr">
         <is>
           <t>TRN-020</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="22" t="inlineStr">
         <is>
           <t>Advanced Troubleshooting Workshop</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="22" t="inlineStr">
         <is>
           <t>Administrators</t>
         </is>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="22" t="inlineStr">
         <is>
           <t>Workshop</t>
         </is>
       </c>
-      <c r="F21" s="7" t="inlineStr">
+      <c r="F21" s="22" t="inlineStr">
         <is>
           <t>TRN-003 and operational experience</t>
         </is>
       </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="G21" s="22" t="inlineStr">
         <is>
           <t>Solve complex issues, Use advanced tools, Document solutions</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="22" t="inlineStr">
         <is>
           <t>Advanced troubleshooting guide, Complex scenarios</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="22" t="inlineStr">
         <is>
           <t>Senior Technical Lead</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="K21" s="7" t="inlineStr">
+      <c r="K21" s="22" t="inlineStr">
         <is>
           <t>Workshop Room</t>
         </is>
       </c>
-      <c r="L21" s="7" t="inlineStr">
+      <c r="L21" s="22" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M21" s="7" t="inlineStr">
+      <c r="M21" s="22" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="N21" s="9" t="n"/>
-      <c r="O21" s="9" t="n"/>
-      <c r="P21" s="7" t="inlineStr">
+      <c r="N21" s="23" t="n"/>
+      <c r="O21" s="23" t="n"/>
+      <c r="P21" s="22" t="inlineStr">
         <is>
           <t>Advanced problem-solving skills</t>
         </is>
@@ -2175,6 +2323,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P21"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>